--- a/CSE-5.xlsx
+++ b/CSE-5.xlsx
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 6:35:05 PM</t>
+    <t>Report generated on: 6/29/2024, 7:42:27 PM</t>
   </si>
   <si>
     <t>Color Legend</t>
@@ -547,7 +547,7 @@
     <t>Krutika Verma</t>
   </si>
   <si>
-    <t>["Just avoid 💀💀","\"Just avoid\"(2)"]</t>
+    <t>["Just avoid 💀💀","\"Just avoid\"(2)","Ma'am is one of the best teacher for design and analysis of algorithms ,teaches very well and very much helpful and will provide excellent guidance .The explanations of  algorithms were clear, concise, and easy to follow"]</t>
   </si>
   <si>
     <t>Subhranshu Sekhar Tripathy</t>
@@ -1272,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
@@ -1306,7 +1306,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="10">
         <v>11</v>
@@ -1329,7 +1329,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="11">
         <v>12</v>
@@ -1386,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="10">
         <v>8</v>
@@ -1437,7 +1437,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="9">
         <v>17</v>
@@ -1511,7 +1511,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39" s="10">
         <v>11</v>
@@ -1591,7 +1591,7 @@
         <v>22</v>
       </c>
       <c r="C47" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="8">
         <v>12</v>
@@ -1642,7 +1642,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="10">
         <v>10</v>
@@ -1742,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>76</v>
@@ -1756,7 +1756,7 @@
         <v>25</v>
       </c>
       <c r="C60" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" s="9">
         <v>6</v>
@@ -1830,7 +1830,7 @@
         <v>25</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
@@ -1864,7 +1864,7 @@
         <v>27</v>
       </c>
       <c r="C68" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" s="10">
         <v>10</v>
@@ -1887,7 +1887,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" s="10">
         <v>8</v>
@@ -1904,7 +1904,7 @@
         <v>22</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="11">
         <v>5</v>
@@ -2135,7 +2135,7 @@
         <v>33</v>
       </c>
       <c r="D92" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>108</v>
@@ -2166,7 +2166,7 @@
         <v>25</v>
       </c>
       <c r="C94" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D94" s="9">
         <v>1</v>
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="D98" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>116</v>
@@ -2340,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>126</v>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>133</v>
@@ -2411,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="C115" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D115" s="10">
         <v>13</v>
@@ -2599,10 +2599,10 @@
         <v>25</v>
       </c>
       <c r="C131" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>150</v>
@@ -2656,7 +2656,7 @@
         <v>25</v>
       </c>
       <c r="C136" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D136" s="8">
         <v>27</v>
@@ -2676,7 +2676,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E137" s="11" t="s">
         <v>156</v>
@@ -2713,7 +2713,7 @@
         <v>160</v>
       </c>
       <c r="C141" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D141" s="9">
         <v>8</v>
@@ -2747,7 +2747,7 @@
         <v>25</v>
       </c>
       <c r="C143" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" s="9">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="C146" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D146" s="10">
         <v>2</v>
@@ -2790,7 +2790,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>168</v>
@@ -2861,7 +2861,7 @@
         <v>175</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -2884,10 +2884,10 @@
         <v>25</v>
       </c>
       <c r="C156" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>178</v>
@@ -2904,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
         <v>20</v>
@@ -2935,7 +2935,7 @@
         <v>19</v>
       </c>
       <c r="C159" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D159" s="9">
         <v>1</v>
@@ -2992,7 +2992,7 @@
         <v>27</v>
       </c>
       <c r="C164" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D164" s="10">
         <v>10</v>
@@ -3009,7 +3009,7 @@
         <v>19</v>
       </c>
       <c r="C165" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D165" s="9">
         <v>1</v>
@@ -3180,7 +3180,7 @@
         <v>19</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>42</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>22</v>
       </c>
       <c r="C184" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D184" s="10">
         <v>10</v>
@@ -3237,7 +3237,7 @@
         <v>25</v>
       </c>
       <c r="C185" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D185" s="10">
         <v>13</v>
@@ -3294,7 +3294,7 @@
         <v>160</v>
       </c>
       <c r="C190" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D190" s="9">
         <v>8</v>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E191" s="11" t="s">
         <v>133</v>
@@ -3351,7 +3351,7 @@
         <v>22</v>
       </c>
       <c r="C195" s="10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D195" s="10">
         <v>10</v>
@@ -3368,7 +3368,7 @@
         <v>25</v>
       </c>
       <c r="C196" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D196" s="9">
         <v>6</v>
@@ -3402,7 +3402,7 @@
         <v>42</v>
       </c>
       <c r="C198" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D198" s="9">
         <v>17</v>
@@ -3425,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="C201" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D201" s="8">
         <v>27</v>
@@ -3485,7 +3485,7 @@
         <v>22</v>
       </c>
       <c r="D206" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>204</v>
@@ -3499,7 +3499,7 @@
         <v>25</v>
       </c>
       <c r="C207" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D207" s="10">
         <v>2</v>
@@ -3533,7 +3533,7 @@
         <v>27</v>
       </c>
       <c r="C209" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D209" s="10">
         <v>10</v>
@@ -3590,7 +3590,7 @@
         <v>19</v>
       </c>
       <c r="C214" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" s="11">
         <v>5</v>
@@ -3607,7 +3607,7 @@
         <v>160</v>
       </c>
       <c r="C215" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D215" s="9">
         <v>8</v>
@@ -3707,7 +3707,7 @@
         <v>33</v>
       </c>
       <c r="D224" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>108</v>
@@ -3721,7 +3721,7 @@
         <v>19</v>
       </c>
       <c r="C225" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D225" s="10">
         <v>2</v>
@@ -3869,7 +3869,7 @@
         <v>19</v>
       </c>
       <c r="C237" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D237" s="9">
         <v>1</v>
@@ -3943,7 +3943,7 @@
         <v>42</v>
       </c>
       <c r="C243" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D243" s="9">
         <v>17</v>
@@ -4057,7 +4057,7 @@
         <v>19</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>5</v>
       </c>
       <c r="D254" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E254" s="11" t="s">
         <v>116</v>
@@ -4131,7 +4131,7 @@
         <v>25</v>
       </c>
       <c r="C259" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D259" s="9">
         <v>3</v>
@@ -4171,7 +4171,7 @@
         <v>35</v>
       </c>
       <c r="C263" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D263" s="10">
         <v>8</v>
@@ -4188,7 +4188,7 @@
         <v>25</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>22</v>
       </c>
       <c r="D268" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>204</v>
@@ -4245,7 +4245,7 @@
         <v>25</v>
       </c>
       <c r="C269" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D269" s="9">
         <v>1</v>
@@ -4325,7 +4325,7 @@
         <v>160</v>
       </c>
       <c r="C277" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D277" s="9">
         <v>8</v>
@@ -4345,7 +4345,7 @@
         <v>9</v>
       </c>
       <c r="D278" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E278" s="11" t="s">
         <v>156</v>
@@ -4416,7 +4416,7 @@
         <v>160</v>
       </c>
       <c r="C284" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D284" s="9">
         <v>8</v>
@@ -4493,7 +4493,7 @@
         <v>14</v>
       </c>
       <c r="D290" s="12">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E290" s="12" t="s">
         <v>168</v>
@@ -4533,7 +4533,7 @@
         <v>33</v>
       </c>
       <c r="D294" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E294" s="12" t="s">
         <v>108</v>
@@ -4550,7 +4550,7 @@
         <v>11</v>
       </c>
       <c r="D295" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E295" s="11" t="s">
         <v>227</v>
@@ -4564,7 +4564,7 @@
         <v>30</v>
       </c>
       <c r="C296" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D296" s="11">
         <v>12</v>
@@ -4587,7 +4587,7 @@
         <v>25</v>
       </c>
       <c r="C299" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D299" s="10">
         <v>18</v>
@@ -4735,7 +4735,7 @@
         <v>19</v>
       </c>
       <c r="C311" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D311" s="10">
         <v>2</v>
@@ -4786,7 +4786,7 @@
         <v>27</v>
       </c>
       <c r="C314" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D314" s="10">
         <v>10</v>
@@ -4826,10 +4826,10 @@
         <v>25</v>
       </c>
       <c r="C318" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D318" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E318" s="12" t="s">
         <v>150</v>

--- a/CSE-5.xlsx
+++ b/CSE-5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="247">
   <si>
     <t>name</t>
   </si>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>Report generated on: 6/29/2024, 7:42:27 PM</t>
+    <t>Report generated on: 6/30/2024, 9:17:02 AM</t>
   </si>
   <si>
     <t>Color Legend</t>
@@ -58,7 +58,7 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Moderately Recommended</t>
+    <t>Below Average</t>
   </si>
   <si>
     <t>Not Recommended</t>
@@ -109,9 +109,15 @@
     <t>Hitesh Mohapatra</t>
   </si>
   <si>
+    <t>["Lab meh fail kiya hai kitno ko theory meh kya hi expect karoge"]</t>
+  </si>
+  <si>
     <t>Himansu Das</t>
   </si>
   <si>
+    <t>["very biased and strict"]</t>
+  </si>
+  <si>
     <t>Section 3</t>
   </si>
   <si>
@@ -121,7 +127,7 @@
     <t>["SE","DAA Lab"]</t>
   </si>
   <si>
-    <t>["good teaher linient in marks ","he's a good one. can be shitty in classes but when it comes to marks, he'll try his best to help you ","Cool teacher ","He give's step marking also and chill teacher."]</t>
+    <t>["good teaher linient in marks ","he's a good one. can be shitty in classes but when it comes to marks, he'll try his best to help you ","Cool teacher ","He give's step marking also and chill teacher.","Gives decent marks"]</t>
   </si>
   <si>
     <t>Aleena Swetapadma</t>
@@ -142,7 +148,7 @@
     <t>["DAA"]</t>
   </si>
   <si>
-    <t>["He is a very good teacher. Maintain give and take relation. If you want to learn just select him","One of the most chill teacher in KIIT, hamare C lab ke teacher the","best concept clear and gives more marks","Mast hai bhai bhar bhar ke marks deta hai"]</t>
+    <t>["One of the most chill teacher in KIIT, hamare C lab ke teacher the","He is a very good teacher. Maintain give and take relation. If you want to learn just select him","best concept clear and gives more marks","Mast hai bhai bhar bhar ke marks deta hai"]</t>
   </si>
   <si>
     <t>Section 4</t>
@@ -202,13 +208,13 @@
     <t>Vikas Hassija</t>
   </si>
   <si>
-    <t>["Good","bilkul bhi marks nahi denge , mat lena isko bas has ke baat karte hai , marks nahi dete","boht bekar hai marks dene me, baki behaviour sahi hai , dont go if you only want marks"]</t>
+    <t>["Good","bilkul bhi marks nahi denge , mat lena isko bas has ke baat karte hai , marks nahi dete","boht bekar hai marks dene me, baki behaviour sahi hai , dont go if you only want marks","Has has k le lega hassija, 26 toh highest rehta hai iske internal me 🥸"]</t>
   </si>
   <si>
     <t>Mamita Dash</t>
   </si>
   <si>
-    <t>["good teacher","strict but provide very good notes. Good teacher . Provide deserving marks ","Very good teacher","Pura PPT class mai likhwati hai ","Excellent teacher!","Best teacher for economics ..she take class tests for chapterwise for internals..You will study for these tests and your concepts will be revised by time. You have to write notes in class ..If you study you can get O grade easily","Acchi teacher hain just be a bit disciplined and u're good to go.","best teacher"]</t>
+    <t>["strict but provide very good notes. Good teacher . Provide deserving marks ","Pura PPT class mai likhwati hai ","good teacher","Very good teacher","Excellent teacher!","Best teacher for economics ..she take class tests for chapterwise for internals..You will study for these tests and your concepts will be revised by time. You have to write notes in class ..If you study you can get O grade easily","Acchi teacher hain just be a bit disciplined and u're good to go.","best teacher"]</t>
   </si>
   <si>
     <t>Section 7</t>
@@ -241,7 +247,7 @@
     <t>Ashish Singh</t>
   </si>
   <si>
-    <t>["isko liya to pura semester bhugto ge","Worst faculty. Students are affected very badly","Kuch bhi properly explain nahi kar pata. Galat ppt mein iske rehta hai. Students ko blame karta rahega lack of attentiveness par. Attendance Puri class ka deduct kar deta . Pura time back Laga Dene ki dhamki dega. Ladkiyon ko stare karta hai. Bina evidence malpractice mein lab me logo ko publicity sessional mein 0 de dala. Koi marks nahi deta . 90 percent PPL got below 10 in mid sem . Not even a single person got 20+ in internals. Call bhi reply nahi karta. Suicide karlo isko mat lo","Avoid"]</t>
+    <t>["Worst faculty. Students are affected very badly","isko liya to pura semester bhugto ge","Kuch bhi properly explain nahi kar pata. Galat ppt mein iske rehta hai. Students ko blame karta rahega lack of attentiveness par. Attendance Puri class ka deduct kar deta . Pura time back Laga Dene ki dhamki dega. Ladkiyon ko stare karta hai. Bina evidence malpractice mein lab me logo ko publicity sessional mein 0 de dala. Koi marks nahi deta . 90 percent PPL got below 10 in mid sem . Not even a single person got 20+ in internals. Call bhi reply nahi karta. Suicide karlo isko mat lo","Avoid","He can't teach , and is extremely egoistic.","Vai marr jaa suicide karle but ye nehi"]</t>
   </si>
   <si>
     <t>Rinku Datta Rakshit</t>
@@ -265,7 +271,7 @@
     <t>Sarita Mishra</t>
   </si>
   <si>
-    <t>["DAA","SE","DAA Lab"]</t>
+    <t>["SE","DAA","DAA Lab"]</t>
   </si>
   <si>
     <t>["BEST.","Not recommended "]</t>
@@ -286,9 +292,15 @@
     <t>Bhaswati Sahoo</t>
   </si>
   <si>
+    <t>["If you attend all the activities, you will get &gt;= 25. She does it for all ... But 10 min late in class/ using mobile , only one sentence \\\" Get out of my class\\\" ...you have nothing to say 😅","try to avoid"]</t>
+  </si>
+  <si>
     <t>Ganga Bishnu Mund</t>
   </si>
   <si>
+    <t>["best teacher , no attendence required","Hasn't given internals till now,talks to few first benchers and leaves,dont expect to learn from his class,no idea about internals but in exams even if you right correct answer,wnt give marks,will only give if it totally matches with official answer key.Expecting 20"]</t>
+  </si>
+  <si>
     <t>Section 11</t>
   </si>
   <si>
@@ -313,7 +325,7 @@
     <t>Manas Ranjan Nayak</t>
   </si>
   <si>
-    <t>["Good overall. Not the best but will do.\n","Bhai is aadmi ko khud kuch nhi aata. Lenient h no doubt. But ha agr tmne shi likha h to b guarantee nhi h k marks milenge kyuki usko smjh nhi aata","na"]</t>
+    <t>["Bhai is aadmi ko khud kuch nhi aata. Lenient h no doubt. But ha agr tmne shi likha h to b guarantee nhi h k marks milenge kyuki usko smjh nhi aata","Good overall. Not the best but will do.\n","na"]</t>
   </si>
   <si>
     <t>Section 13</t>
@@ -322,6 +334,9 @@
     <t>Jaydeep Das</t>
   </si>
   <si>
+    <t>["Very bad teacher. His teaching style is very bad his focus is to complete syllabus. For internals, he would never give full marks for assignments and all. He would take class test which would be of 15 mins and consist of 10 questions which are definitely not easy. He will roam around here and there and will check if you are cheating or not. Try not to go with this teacher otherwise ggs to your marks. Chatne se bhi nahi hoga dega nhi ye marks."]</t>
+  </si>
+  <si>
     <t>Banchhanidhi Dash</t>
   </si>
   <si>
@@ -337,18 +352,21 @@
     <t>Manas Ranjan Lenka</t>
   </si>
   <si>
-    <t>["Knowledgeable and nice teaching but very strict ","ek toh marks nahi diya upar se ghar pe call kar diya","He will give marks in the midsem if you know the subject.But will cut marks in every possible way in endsems..He gave me 19 in midsem and in endsems our highest is 31 in oops.He didnt even teach that well as per exam question level standards..I would suggest you not to select him as a teacher"]</t>
+    <t>["ek toh marks nahi diya upar se ghar pe call kar diya","Knowledgeable and nice teaching but very strict ","He will give marks in the midsem if you know the subject.But will cut marks in every possible way in endsems..He gave me 19 in midsem and in endsems our highest is 31 in oops.He didnt even teach that well as per exam question level standards..I would suggest you not to select him as a teacher"]</t>
   </si>
   <si>
     <t>Jayanta Mondal</t>
   </si>
   <si>
-    <t>[" ","Regular class attend karo and assignment karo marks mil jayega","classes may feel boring but teaches well"]</t>
+    <t>[" ","Regular class attend karo and assignment karo marks mil jayega","classes may feel boring but teaches well","agar class me sona hai to best faculty hai"]</t>
   </si>
   <si>
     <t>Bindu Agarwalla</t>
   </si>
   <si>
+    <t>["Great"]</t>
+  </si>
+  <si>
     <t>Section 15</t>
   </si>
   <si>
@@ -376,6 +394,9 @@
     <t>Meghana G Raj</t>
   </si>
   <si>
+    <t>["Very strict and does not tolerate any indiscipline or even a little bit of disrespectful behaviour such as yawning in her class. Will punish the whole class if any student does the above mentioned thing. Doesn't provide notes, strict marking as if she wants u to fail","very strict, won’t give you marks either. Strictly Avoid!","try to avoid her"]</t>
+  </si>
+  <si>
     <t>Sushruta Mishra</t>
   </si>
   <si>
@@ -427,13 +448,13 @@
     <t>Rabi Shaw</t>
   </si>
   <si>
-    <t>["Probably one of the most evil teachers out there, he actively wants his students to fail miserably and then laugh at their helpless faces. He'll pull some of the the most outlandish bullshit just to make you feel worthless about everything. You CAN, however, get good marks under him if you make a very good impression on him somehow. ","He is actually good, if you maintain discipline in class, have 90% above attendance and sit in first bench. He will give 28+ in internals out of 30. Just don’t disturb in his class, else he will make your semester hell.","Marks depends on his mood 😂 ","Just the worst","Not at all recommended","Ro doge jaaoge to "]</t>
+    <t>["Just the worst","Marks depends on his mood 😂 ","He is actually good, if you maintain discipline in class, have 90% above attendance and sit in first bench. He will give 28+ in internals out of 30. Just don’t disturb in his class, else he will make your semester hell.","Probably one of the most evil teachers out there, he actively wants his students to fail miserably and then laugh at their helpless faces. He'll pull some of the the most outlandish bullshit just to make you feel worthless about everything. You CAN, however, get good marks under him if you make a very good impression on him somehow. ","Not at all recommended","Ro doge jaaoge to "]</t>
   </si>
   <si>
     <t>Ajit Kumar Pasayat</t>
   </si>
   <si>
-    <t>["BEST PERSON, FULL SUPPORT TO STUDENTS AND EXTREMELY STUDENT FRIENDLY\n","best teacher"]</t>
+    <t>["BEST PERSON, FULL SUPPORT TO STUDENTS AND EXTREMELY STUDENT FRIENDLY\n","best teacher","Full in internals\\n\\nSir gave extra marks in exam papers also and finally before submitting increased 4-5 marks, he is the best person as a teacher. (Highly recommended and He will surely get you 'O' grades.","best of best"]</t>
   </si>
   <si>
     <t>Arghya Kundu</t>
@@ -448,6 +469,9 @@
     <t>Aradhana Behura</t>
   </si>
   <si>
+    <t>["she may not be the best teacher but she will give you marks","Just avoid"]</t>
+  </si>
+  <si>
     <t>Prasant Kumar Pattnaik</t>
   </si>
   <si>
@@ -463,12 +487,15 @@
     <t>Pradeep Kandula</t>
   </si>
   <si>
-    <t>["he doesn't give marks!","worst faculty","Teaches good, Gives deserving marks","Good teacher ","no extra marks ...just deserving marks\n","gave good marks in both mid and end sem (oops java)."]</t>
+    <t>["Teaches good, Gives deserving marks","Good teacher ","he doesn't give marks!","worst faculty","no extra marks ...just deserving marks\n","gave good marks in both mid and end sem (oops java)."]</t>
   </si>
   <si>
     <t>Subhashree Darshana</t>
   </si>
   <si>
+    <t>["if you want the worst teacher choose here. even if you do all internals properly still wont get marks,very biased.will give 5-7 less marks than expected.even if grade is short by one mark,she wont give","Very biased towards few students,teaches like shit,conducts surprise tests and quizzes and will give 0 if you miss them,no defaulters.Will give 5-6 less than deserving in midsemand endsem,even if you apply for recheck,its of no use.","Worst Teacher in KIIT ever !!","Worst teacher ever, never ever chose her"]</t>
+  </si>
+  <si>
     <t>Section 22</t>
   </si>
   <si>
@@ -481,7 +508,7 @@
     <t>Saurabh Bilgaiyan</t>
   </si>
   <si>
-    <t>["I never studied from him. But my roommate was in his class and he came for substitution in my OS class. I have entered my roommate's internals. He's a good guy assuming you study and attend classes. His teaching style was good. You'll understand stuff. But don't take if you're not gonna grind cause he's also infamous for failing people ","do NOT opt","Worst ever","remember the teacher who made out with students? Yes that is him. \n","Strict but be a bit disciplined u will ace","He teaches really great, gives excellent notes but his evaluation is strict.","not good at all...marking to chhoro, ethics naam ki cheez bhi nhi hai\n","bohot jaldi padata hey aur throavi patience nehi hey but teacher knowlegable. chnace hey to mat lo"]</t>
+    <t>["I never studied from him. But my roommate was in his class and he came for substitution in my OS class. I have entered my roommate's internals. He's a good guy assuming you study and attend classes. His teaching style was good. You'll understand stuff. But don't take if you're not gonna grind cause he's also infamous for failing people ","remember the teacher who made out with students? Yes that is him. \n","Worst ever","do NOT opt","Strict but be a bit disciplined u will ace","He teaches really great, gives excellent notes but his evaluation is strict.","not good at all...marking to chhoro, ethics naam ki cheez bhi nhi hai\n","bohot jaldi padata hey aur throavi patience nehi hey but teacher knowlegable. chnace hey to mat lo"]</t>
   </si>
   <si>
     <t>Rakesh Kumar Rai</t>
@@ -508,6 +535,9 @@
     <t>Subhadip Pramanik</t>
   </si>
   <si>
+    <t>["poor lots of assignments and doesn't give marks","doesnt give marksss"]</t>
+  </si>
+  <si>
     <t>Section 24</t>
   </si>
   <si>
@@ -529,6 +559,9 @@
     <t>Krishna Chakravarty</t>
   </si>
   <si>
+    <t>["teaches really well"]</t>
+  </si>
+  <si>
     <t>Vishal Meena</t>
   </si>
   <si>
@@ -559,7 +592,7 @@
     <t>Lipika Mohanty</t>
   </si>
   <si>
-    <t>["best faculty","Give you a clear concept and good marks in internal like i got 28 in internal and 18 in mid sem and 42 in end sem","Go for it if you really want to learn something and she is a chill faculty bas mood kharab mat karna she'll give give you good marks in both internal and exams"]</t>
+    <t>["best faculty","Give you a clear concept and good marks in internal like i got 28 in internal and 18 in mid sem and 42 in end sem","Go for it if you really want to learn something and she is a chill faculty bas mood kharab mat karna she'll give give you good marks in both internal and exams","She is the boss🫡🫡"]</t>
   </si>
   <si>
     <t>Section 28</t>
@@ -568,12 +601,15 @@
     <t>Ipsita Paul</t>
   </si>
   <si>
-    <t>["She don't clear any doubt. Other than study she can talk about anything. Boys who talk random things and entertain her will got marks not on the basis of talent","Worst teacher don't expect from her","bad ","Bohot badi madharchod hai ye mat lena koi bhi"]</t>
+    <t>["bad ","She don't clear any doubt. Other than study she can talk about anything. Boys who talk random things and entertain her will got marks not on the basis of talent","Worst teacher don't expect from her","Bohot badi madharchod hai ye mat lena koi bhi"]</t>
   </si>
   <si>
     <t>Manas Ranjan Biswal</t>
   </si>
   <si>
+    <t>["Excellent teacher","Very poor, no knowledge, avd marking, and all assignments and activities taken in class hours","Very poor"]</t>
+  </si>
+  <si>
     <t>N Biraja Isac</t>
   </si>
   <si>
@@ -589,6 +625,9 @@
     <t>Anjan Bandyopadhyay</t>
   </si>
   <si>
+    <t>["very biased"]</t>
+  </si>
+  <si>
     <t>Rishi Raj</t>
   </si>
   <si>
@@ -598,7 +637,7 @@
     <t>Kumar Devadutta</t>
   </si>
   <si>
-    <t>["Teaches well, also if you have attendance, you can score full in internals. "]</t>
+    <t>["Teaches well, also if you have attendance, you can score full in internals. ","Overall Great 👍🏻"]</t>
   </si>
   <si>
     <t>Section 32</t>
@@ -625,7 +664,7 @@
     <t>Arup Sarkar</t>
   </si>
   <si>
-    <t>["Extremely linent. Bharke marks dega…","Marks dega. Lekin classes bohot boring honge..Friendly bhi ha","Acha marks dega lenient v hai"]</t>
+    <t>["Marks dega. Lekin classes bohot boring honge..Friendly bhi ha","Extremely linent. Bharke marks dega…","Acha marks dega lenient v hai"]</t>
   </si>
   <si>
     <t>Ronali Padhy</t>
@@ -649,7 +688,7 @@
     <t>Dayal Kumar Behera</t>
   </si>
   <si>
-    <t>["He will take surprise test in class and if you attend more than 80% and if you just write anything in exam still he gives marks","Teaches well and gives deserving marks"]</t>
+    <t>["He will take surprise test in class and if you attend more than 80% and if you just write anything in exam still he gives marks","Teaches well and gives deserving marks","Best teacher. ","Give good marks "]</t>
   </si>
   <si>
     <t>Section 41</t>
@@ -694,7 +733,7 @@
     <t>Murari Mandal</t>
   </si>
   <si>
-    <t>["awful teacher! neither does he bother to teach and complete syllabus nor does he give decent internals"]</t>
+    <t>["awful teacher! neither does he bother to teach and complete syllabus nor does he give decent internals","bohot bada harami hai ye mat lena "]</t>
   </si>
   <si>
     <t>Section 52</t>
@@ -793,11 +832,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,19 +1304,19 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="9">
-        <v>6</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="C20" s="8">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8">
+        <v>21</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1289,10 +1328,10 @@
         <v>25</v>
       </c>
       <c r="C21" s="9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D21" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>20</v>
@@ -1322,185 +1361,185 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>12</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
+      <c r="B26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8">
+        <v>37</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="9">
-        <v>28</v>
-      </c>
-      <c r="D27" s="9">
-        <v>5</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>20</v>
+      <c r="C27" s="11">
+        <v>29</v>
+      </c>
+      <c r="D27" s="11">
+        <v>20</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="10">
-        <v>30</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="A30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9">
+        <v>31</v>
+      </c>
+      <c r="D30" s="9">
         <v>8</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>36</v>
+      <c r="E30" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="10">
-        <v>33</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9">
+        <v>50</v>
+      </c>
+      <c r="D31" s="9">
         <v>16</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8">
         <v>4</v>
       </c>
-      <c r="D32" s="12">
-        <v>14</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>40</v>
+      <c r="D32" s="8">
+        <v>54</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" s="9">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="D33" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="A36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="11">
         <v>7</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="11">
         <v>5</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="10">
-        <v>10</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C37" s="9">
+        <v>37</v>
+      </c>
+      <c r="D37" s="9">
         <v>4</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>48</v>
+      <c r="E37" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="9">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D38" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1523,143 +1562,143 @@
     <row r="40" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="A42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="8">
-        <v>24</v>
-      </c>
-      <c r="D42" s="8">
-        <v>20</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>53</v>
+      <c r="C42" s="12">
+        <v>39</v>
+      </c>
+      <c r="D42" s="12">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="8">
-        <v>21</v>
-      </c>
-      <c r="D43" s="8">
-        <v>19</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>55</v>
+      <c r="A43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="11">
+        <v>36</v>
+      </c>
+      <c r="D43" s="11">
+        <v>29</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="8">
-        <v>3</v>
-      </c>
-      <c r="D44" s="8">
-        <v>3</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="C44" s="11">
+        <v>18</v>
+      </c>
+      <c r="D44" s="11">
+        <v>18</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="11">
         <v>16</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="11">
         <v>12</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>59</v>
+      <c r="E47" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="10">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D48" s="10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="10">
-        <v>7</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>63</v>
+      <c r="A49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="8">
+        <v>13</v>
+      </c>
+      <c r="D49" s="8">
+        <v>32</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="10">
-        <v>34</v>
-      </c>
-      <c r="D50" s="10">
+      <c r="C50" s="9">
+        <v>35</v>
+      </c>
+      <c r="D50" s="9">
         <v>10</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>65</v>
+      <c r="E50" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>25</v>
@@ -1671,12 +1710,12 @@
         <v>16</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>22</v>
@@ -1688,29 +1727,29 @@
         <v>11</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D55" s="10">
         <v>16</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -1728,46 +1767,46 @@
     <row r="57" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="11">
+      <c r="A59" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="8">
         <v>2</v>
       </c>
-      <c r="D59" s="11">
-        <v>77</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>76</v>
+      <c r="D59" s="8">
+        <v>113</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D60" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -1784,7 +1823,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>27</v>
@@ -1796,297 +1835,297 @@
         <v>8</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C65" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D65" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="A66" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C66" s="9">
+        <v>69</v>
+      </c>
+      <c r="D66" s="9">
+        <v>20</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="A67" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="11">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11">
+        <v>6</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="10">
-        <v>34</v>
-      </c>
-      <c r="D68" s="10">
+      <c r="C68" s="9">
+        <v>35</v>
+      </c>
+      <c r="D68" s="9">
         <v>10</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>65</v>
+      <c r="E68" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="9">
+        <v>31</v>
+      </c>
+      <c r="D71" s="9">
+        <v>8</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="11">
+        <v>17</v>
+      </c>
+      <c r="D72" s="11">
+        <v>16</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="10">
         <v>34</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="10">
-        <v>30</v>
-      </c>
-      <c r="D71" s="10">
-        <v>8</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="9">
-        <v>8</v>
-      </c>
-      <c r="D73" s="9">
-        <v>2</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>20</v>
+      <c r="D73" s="10">
+        <v>17</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>20</v>
+      <c r="A74" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="11">
+        <v>31</v>
+      </c>
+      <c r="D74" s="11">
+        <v>26</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="10">
-        <v>28</v>
-      </c>
-      <c r="D77" s="10">
+      <c r="C77" s="12">
+        <v>29</v>
+      </c>
+      <c r="D77" s="12">
         <v>15</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="11">
-        <v>1</v>
-      </c>
-      <c r="D78" s="11">
-        <v>5</v>
-      </c>
-      <c r="E78" s="11" t="s">
+      <c r="A78" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="8">
+        <v>16</v>
+      </c>
+      <c r="D78" s="8">
+        <v>90</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="10">
-        <v>40</v>
-      </c>
-      <c r="D79" s="10">
-        <v>11</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>96</v>
+      <c r="A79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="9">
+        <v>70</v>
+      </c>
+      <c r="D79" s="9">
+        <v>16</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="A82" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="11">
+        <v>6</v>
+      </c>
+      <c r="D82" s="11">
+        <v>5</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="10">
-        <v>28</v>
-      </c>
-      <c r="D83" s="10">
+      <c r="C83" s="9">
+        <v>48</v>
+      </c>
+      <c r="D83" s="9">
         <v>14</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>100</v>
+      <c r="E83" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>20</v>
+      <c r="A84" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="11">
+        <v>31</v>
+      </c>
+      <c r="D84" s="11">
+        <v>26</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="11">
-        <v>1</v>
-      </c>
-      <c r="D87" s="11">
-        <v>5</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>20</v>
+      <c r="A87" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="8">
+        <v>36</v>
+      </c>
+      <c r="D87" s="8">
+        <v>75</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>22</v>
@@ -2098,192 +2137,192 @@
         <v>16</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C89" s="11">
+        <v>17</v>
+      </c>
+      <c r="D89" s="11">
+        <v>15</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="12">
+      <c r="A92" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="8">
         <v>33</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="8">
         <v>73</v>
       </c>
-      <c r="E92" s="12" t="s">
-        <v>108</v>
+      <c r="E92" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="10">
-        <v>29</v>
-      </c>
-      <c r="D93" s="10">
-        <v>10</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>110</v>
+      <c r="C93" s="9">
+        <v>49</v>
+      </c>
+      <c r="D93" s="9">
+        <v>15</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C94" s="9">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="D94" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="10">
-        <v>34</v>
-      </c>
-      <c r="D97" s="10">
+      <c r="A97" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="9">
+        <v>44</v>
+      </c>
+      <c r="D97" s="9">
         <v>9</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>114</v>
+      <c r="E97" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" s="11" t="s">
+      <c r="A98" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="8">
         <v>5</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="8">
         <v>50</v>
       </c>
-      <c r="E98" s="11" t="s">
-        <v>116</v>
+      <c r="E98" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="11">
         <v>11</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="11">
         <v>11</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>118</v>
+      <c r="E99" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="11" t="s">
+      <c r="A102" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="8">
         <v>1</v>
       </c>
-      <c r="D102" s="11">
-        <v>11</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>20</v>
+      <c r="D102" s="8">
+        <v>21</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="8">
-        <v>3</v>
-      </c>
-      <c r="D103" s="8">
-        <v>3</v>
-      </c>
-      <c r="E103" s="8" t="s">
+      <c r="C103" s="11">
+        <v>18</v>
+      </c>
+      <c r="D103" s="11">
+        <v>18</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C104" s="9">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="D104" s="9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>20</v>
@@ -2292,66 +2331,66 @@
     <row r="105" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B107" s="11" t="s">
+      <c r="A107" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="8">
         <v>5</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="8">
+        <v>39</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C108" s="10">
-        <v>40</v>
-      </c>
-      <c r="D108" s="10">
-        <v>11</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>96</v>
+      <c r="C108" s="9">
+        <v>70</v>
+      </c>
+      <c r="D108" s="9">
+        <v>16</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="11">
+      <c r="A109" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="8">
         <v>3</v>
       </c>
-      <c r="D109" s="11">
-        <v>27</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>126</v>
+      <c r="D109" s="8">
+        <v>37</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2366,194 +2405,194 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D113" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="11">
-        <v>1</v>
-      </c>
-      <c r="D114" s="11">
+      <c r="C114" s="8">
+        <v>3</v>
+      </c>
+      <c r="D114" s="8">
         <v>6</v>
       </c>
-      <c r="E114" s="11" t="s">
-        <v>133</v>
+      <c r="E114" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B115" s="10" t="s">
+      <c r="A115" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="10">
-        <v>44</v>
-      </c>
-      <c r="D115" s="10">
+      <c r="C115" s="9">
+        <v>82</v>
+      </c>
+      <c r="D115" s="9">
         <v>13</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>135</v>
+      <c r="E115" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C116" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D116" s="10">
         <v>16</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B119" s="11" t="s">
+      <c r="A119" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C119" s="8">
         <v>16</v>
       </c>
-      <c r="D119" s="11">
-        <v>84</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>138</v>
+      <c r="D119" s="8">
+        <v>124</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C120" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D120" s="9">
         <v>2</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B121" s="12" t="s">
+      <c r="A121" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="8">
         <v>7</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="8">
         <v>15</v>
       </c>
-      <c r="E121" s="12" t="s">
-        <v>142</v>
+      <c r="E121" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C122" s="10">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D122" s="10">
         <v>16</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>144</v>
-      </c>
-      <c r="B125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s">
-        <v>20</v>
+      <c r="A125" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="11">
+        <v>32</v>
+      </c>
+      <c r="D125" s="11">
+        <v>27</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="9">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D126" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>27</v>
@@ -2565,18 +2604,18 @@
         <v>8</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B128" t="s">
         <v>25</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2588,46 +2627,46 @@
     <row r="129" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B131" s="12" t="s">
+      <c r="A131" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="8">
         <v>28</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="8">
         <v>49</v>
       </c>
-      <c r="E131" s="12" t="s">
-        <v>150</v>
+      <c r="E131" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" s="12">
-        <v>1</v>
-      </c>
-      <c r="D132" s="12">
-        <v>4</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>20</v>
+      <c r="A132" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="8">
+        <v>6</v>
+      </c>
+      <c r="D132" s="8">
+        <v>79</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
@@ -2645,12 +2684,12 @@
     <row r="134" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>25</v>
@@ -2662,29 +2701,29 @@
         <v>27</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B137" s="11" t="s">
+      <c r="A137" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C137" s="11">
+      <c r="C137" s="8">
         <v>9</v>
       </c>
-      <c r="D137" s="11">
-        <v>127</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>156</v>
+      <c r="D137" s="8">
+        <v>159</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>19</v>
@@ -2702,103 +2741,103 @@
     <row r="139" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C141" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D141" s="9">
         <v>8</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="11">
+      <c r="A142" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="8">
         <v>3</v>
       </c>
-      <c r="D142" s="11">
-        <v>36</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>163</v>
+      <c r="D142" s="8">
+        <v>51</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143" s="9" t="s">
+      <c r="A143" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C143" s="9">
-        <v>11</v>
-      </c>
-      <c r="D143" s="9">
-        <v>2</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>20</v>
+      <c r="C143" s="8">
+        <v>22</v>
+      </c>
+      <c r="D143" s="8">
+        <v>37</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="10">
-        <v>7</v>
-      </c>
-      <c r="D146" s="10">
+      <c r="A146" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="9">
+        <v>8</v>
+      </c>
+      <c r="D146" s="9">
         <v>2</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="12">
-        <v>14</v>
-      </c>
-      <c r="D147" s="12">
-        <v>41</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>168</v>
+      <c r="A147" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="8">
+        <v>15</v>
+      </c>
+      <c r="D147" s="8">
+        <v>47</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B148" t="s">
         <v>25</v>
@@ -2816,29 +2855,29 @@
     <row r="149" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C151" s="9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D151" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>19</v>
@@ -2850,15 +2889,15 @@
         <v>6</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2873,46 +2912,46 @@
     <row r="154" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B156" s="11" t="s">
+      <c r="A156" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C156" s="8">
+        <v>12</v>
+      </c>
+      <c r="D156" s="8">
+        <v>94</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="11">
         <v>7</v>
       </c>
-      <c r="D156" s="11">
-        <v>39</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>87</v>
-      </c>
-      <c r="B157" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157">
-        <v>2</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="D157" s="11">
+        <v>6</v>
+      </c>
+      <c r="E157" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>27</v>
@@ -2924,183 +2963,183 @@
         <v>8</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="9">
-        <v>5</v>
-      </c>
-      <c r="D159" s="9">
-        <v>1</v>
-      </c>
-      <c r="E159" s="9" t="s">
+      <c r="A159" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="11">
+        <v>41</v>
+      </c>
+      <c r="D159" s="11">
+        <v>31</v>
+      </c>
+      <c r="E159" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>181</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="A162" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C162">
-        <v>3</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="E162" t="s">
-        <v>182</v>
+      <c r="C162" s="9">
+        <v>78</v>
+      </c>
+      <c r="D162" s="9">
+        <v>21</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C163" s="9">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D163" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B164" s="10" t="s">
+      <c r="A164" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B164" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C164" s="10">
-        <v>34</v>
-      </c>
-      <c r="D164" s="10">
+      <c r="C164" s="9">
+        <v>35</v>
+      </c>
+      <c r="D164" s="9">
         <v>10</v>
       </c>
-      <c r="E164" s="10" t="s">
-        <v>65</v>
+      <c r="E164" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="9">
-        <v>5</v>
-      </c>
-      <c r="D165" s="9">
-        <v>1</v>
-      </c>
-      <c r="E165" s="9" t="s">
+      <c r="A165" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="11">
+        <v>41</v>
+      </c>
+      <c r="D165" s="11">
+        <v>31</v>
+      </c>
+      <c r="E165" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B168" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>1</v>
-      </c>
-      <c r="E168" t="s">
-        <v>20</v>
+      <c r="B168" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="8">
+        <v>11</v>
+      </c>
+      <c r="D168" s="8">
+        <v>37</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C169" s="12">
+      <c r="A169" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C169" s="8">
         <v>13</v>
       </c>
-      <c r="D169" s="12">
-        <v>24</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>185</v>
+      <c r="D169" s="8">
+        <v>74</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C170" s="9">
-        <v>4</v>
-      </c>
-      <c r="D170" s="9">
-        <v>1</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>20</v>
+      <c r="A170" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="8">
+        <v>14</v>
+      </c>
+      <c r="D170" s="8">
+        <v>16</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C171" s="8">
-        <v>2</v>
-      </c>
-      <c r="D171" s="8">
-        <v>3</v>
-      </c>
-      <c r="E171" s="8" t="s">
+      <c r="A171" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" s="11">
+        <v>27</v>
+      </c>
+      <c r="D171" s="11">
+        <v>23</v>
+      </c>
+      <c r="E171" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>25</v>
@@ -3116,25 +3155,25 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" s="8">
-        <v>21</v>
-      </c>
-      <c r="D175" s="8">
-        <v>19</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>55</v>
+      <c r="A175" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="11">
+        <v>36</v>
+      </c>
+      <c r="D175" s="11">
+        <v>29</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B176" t="s">
         <v>22</v>
@@ -3152,49 +3191,49 @@
     <row r="177" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B179" s="12" t="s">
+      <c r="A179" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="8">
+        <v>13</v>
+      </c>
+      <c r="D179" s="8">
+        <v>74</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="8">
+        <v>13</v>
+      </c>
+      <c r="D180" s="8">
         <v>35</v>
       </c>
-      <c r="C179" s="12">
-        <v>13</v>
-      </c>
-      <c r="D179" s="12">
-        <v>24</v>
-      </c>
-      <c r="E179" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>191</v>
-      </c>
-      <c r="B180" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180">
-        <v>3</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180" t="s">
-        <v>20</v>
+      <c r="E180" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B181" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -3209,217 +3248,217 @@
     <row r="182" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B184" s="10" t="s">
+      <c r="A184" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C184" s="10">
-        <v>26</v>
-      </c>
-      <c r="D184" s="10">
-        <v>10</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>195</v>
+      <c r="C184" s="9">
+        <v>48</v>
+      </c>
+      <c r="D184" s="9">
+        <v>16</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B185" s="10" t="s">
+      <c r="A185" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C185" s="10">
-        <v>44</v>
-      </c>
-      <c r="D185" s="10">
+      <c r="C185" s="9">
+        <v>82</v>
+      </c>
+      <c r="D185" s="9">
         <v>13</v>
       </c>
-      <c r="E185" s="10" t="s">
-        <v>135</v>
+      <c r="E185" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="10">
-        <v>7</v>
-      </c>
-      <c r="D186" s="10">
-        <v>2</v>
-      </c>
-      <c r="E186" s="10" t="s">
-        <v>63</v>
+      <c r="A186" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="8">
+        <v>13</v>
+      </c>
+      <c r="D186" s="8">
+        <v>32</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C189" s="9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D189" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C190" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D190" s="9">
         <v>8</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B191" s="11" t="s">
+      <c r="A191" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C191" s="11">
-        <v>1</v>
-      </c>
-      <c r="D191" s="11">
+      <c r="C191" s="8">
+        <v>3</v>
+      </c>
+      <c r="D191" s="8">
         <v>6</v>
       </c>
-      <c r="E191" s="11" t="s">
-        <v>133</v>
+      <c r="E191" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" t="s">
+      <c r="A192" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B192" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192">
-        <v>1</v>
-      </c>
-      <c r="E192" t="s">
-        <v>198</v>
+      <c r="C192" s="8">
+        <v>11</v>
+      </c>
+      <c r="D192" s="8">
+        <v>16</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195" s="10" t="s">
+      <c r="A195" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C195" s="10">
-        <v>26</v>
-      </c>
-      <c r="D195" s="10">
-        <v>10</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>195</v>
+      <c r="C195" s="9">
+        <v>48</v>
+      </c>
+      <c r="D195" s="9">
+        <v>16</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C196" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D196" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C197" s="9">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D197" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C198" s="9">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="D198" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>25</v>
@@ -3431,7 +3470,7 @@
         <v>27</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,7 +3492,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B203" t="s">
         <v>22</v>
@@ -3471,46 +3510,46 @@
     <row r="204" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="8">
-        <v>22</v>
-      </c>
-      <c r="D206" s="8">
-        <v>29</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>204</v>
+      <c r="A206" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="11">
+        <v>47</v>
+      </c>
+      <c r="D206" s="11">
+        <v>30</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B207" s="10" t="s">
+      <c r="A207" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C207" s="10">
-        <v>5</v>
-      </c>
-      <c r="D207" s="10">
-        <v>2</v>
-      </c>
-      <c r="E207" s="10" t="s">
+      <c r="C207" s="11">
+        <v>15</v>
+      </c>
+      <c r="D207" s="11">
+        <v>12</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>22</v>
@@ -3522,32 +3561,32 @@
         <v>11</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B209" s="10" t="s">
+      <c r="A209" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C209" s="10">
-        <v>34</v>
-      </c>
-      <c r="D209" s="10">
+      <c r="C209" s="9">
+        <v>35</v>
+      </c>
+      <c r="D209" s="9">
         <v>10</v>
       </c>
-      <c r="E209" s="10" t="s">
-        <v>65</v>
+      <c r="E209" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B210" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3562,197 +3601,197 @@
     <row r="211" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C213" s="8">
+      <c r="A213" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213" s="11">
         <v>7</v>
       </c>
-      <c r="D213" s="8">
+      <c r="D213" s="11">
         <v>5</v>
       </c>
-      <c r="E213" s="8" t="s">
+      <c r="E213" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C214" s="11">
-        <v>1</v>
-      </c>
-      <c r="D214" s="11">
-        <v>5</v>
-      </c>
-      <c r="E214" s="11" t="s">
+      <c r="A214" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="8">
+        <v>16</v>
+      </c>
+      <c r="D214" s="8">
+        <v>90</v>
+      </c>
+      <c r="E214" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C215" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D215" s="9">
         <v>8</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B216" s="8" t="s">
+      <c r="A216" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B216" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C216" s="8">
-        <v>24</v>
-      </c>
-      <c r="D216" s="8">
-        <v>20</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>53</v>
+      <c r="C216" s="12">
+        <v>39</v>
+      </c>
+      <c r="D216" s="12">
+        <v>20</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>98</v>
-      </c>
-      <c r="B219" t="s">
-        <v>19</v>
-      </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="A219" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="11">
+        <v>6</v>
+      </c>
+      <c r="D219" s="11">
+        <v>5</v>
+      </c>
+      <c r="E219" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C220" s="9">
+      <c r="A220" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C220" s="8">
+        <v>14</v>
+      </c>
+      <c r="D220" s="8">
+        <v>16</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" s="9">
+        <v>37</v>
+      </c>
+      <c r="D221" s="9">
         <v>4</v>
       </c>
-      <c r="D220" s="9">
-        <v>1</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B221" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C221" s="10">
-        <v>10</v>
-      </c>
-      <c r="D221" s="10">
-        <v>4</v>
-      </c>
-      <c r="E221" s="10" t="s">
-        <v>48</v>
+      <c r="E221" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C224" s="12">
+      <c r="A224" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="8">
         <v>33</v>
       </c>
-      <c r="D224" s="12">
+      <c r="D224" s="8">
         <v>73</v>
       </c>
-      <c r="E224" s="12" t="s">
-        <v>108</v>
+      <c r="E224" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B225" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C225" s="10">
-        <v>7</v>
-      </c>
-      <c r="D225" s="10">
+      <c r="A225" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="9">
+        <v>8</v>
+      </c>
+      <c r="D225" s="9">
         <v>2</v>
       </c>
-      <c r="E225" s="10" t="s">
+      <c r="E225" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C226" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D226" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B227" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3767,197 +3806,197 @@
     <row r="228" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B230" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C230" s="10">
+      <c r="A230" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="9">
+        <v>44</v>
+      </c>
+      <c r="D230" s="9">
+        <v>9</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" s="11">
+        <v>29</v>
+      </c>
+      <c r="D231" s="11">
+        <v>20</v>
+      </c>
+      <c r="E231" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D230" s="10">
-        <v>9</v>
-      </c>
-      <c r="E230" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C231" s="9">
-        <v>28</v>
-      </c>
-      <c r="D231" s="9">
-        <v>5</v>
-      </c>
-      <c r="E231" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C232" s="9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D232" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C235" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D235" s="9">
         <v>0</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B236" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C236" s="10">
-        <v>40</v>
-      </c>
-      <c r="D236" s="10">
-        <v>11</v>
-      </c>
-      <c r="E236" s="10" t="s">
-        <v>96</v>
+      <c r="A236" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C236" s="9">
+        <v>70</v>
+      </c>
+      <c r="D236" s="9">
+        <v>16</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C237" s="9">
-        <v>5</v>
-      </c>
-      <c r="D237" s="9">
-        <v>1</v>
-      </c>
-      <c r="E237" s="9" t="s">
+      <c r="A237" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="11">
+        <v>41</v>
+      </c>
+      <c r="D237" s="11">
+        <v>31</v>
+      </c>
+      <c r="E237" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C240" s="9">
-        <v>8</v>
-      </c>
-      <c r="D240" s="9">
-        <v>2</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>20</v>
+      <c r="A240" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="10">
+        <v>34</v>
+      </c>
+      <c r="D240" s="10">
+        <v>17</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B241" s="11" t="s">
+      <c r="A241" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B241" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C241" s="11">
+      <c r="C241" s="8">
         <v>1</v>
       </c>
-      <c r="D241" s="11">
-        <v>11</v>
-      </c>
-      <c r="E241" s="11" t="s">
-        <v>20</v>
+      <c r="D241" s="8">
+        <v>21</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B242" s="12" t="s">
+      <c r="A242" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B242" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C242" s="12">
+      <c r="C242" s="8">
         <v>7</v>
       </c>
-      <c r="D242" s="12">
+      <c r="D242" s="8">
         <v>15</v>
       </c>
-      <c r="E242" s="12" t="s">
-        <v>142</v>
+      <c r="E242" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C243" s="9">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="D243" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B244" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -3972,69 +4011,69 @@
     <row r="245" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247" s="9">
+        <v>68</v>
+      </c>
+      <c r="D247" s="9">
+        <v>17</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B247" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C247" s="9">
-        <v>47</v>
-      </c>
-      <c r="D247" s="9">
-        <v>12</v>
-      </c>
-      <c r="E247" s="9" t="s">
+      <c r="B248" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" s="8">
+        <v>5</v>
+      </c>
+      <c r="D248" s="8">
+        <v>39</v>
+      </c>
+      <c r="E248" s="8" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B248" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C248" s="11">
-        <v>5</v>
-      </c>
-      <c r="D248" s="11">
-        <v>37</v>
-      </c>
-      <c r="E248" s="11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B249" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C249" s="10">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D249" s="10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>25</v>
@@ -4046,81 +4085,81 @@
         <v>16</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>191</v>
-      </c>
-      <c r="B253" t="s">
-        <v>19</v>
-      </c>
-      <c r="C253">
-        <v>3</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253" t="s">
-        <v>20</v>
+      <c r="A253" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" s="8">
+        <v>13</v>
+      </c>
+      <c r="D253" s="8">
+        <v>35</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B254" s="11" t="s">
+      <c r="A254" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B254" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C254" s="11">
+      <c r="C254" s="8">
         <v>5</v>
       </c>
-      <c r="D254" s="11">
+      <c r="D254" s="8">
         <v>50</v>
       </c>
-      <c r="E254" s="11" t="s">
-        <v>116</v>
+      <c r="E254" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B257" s="10" t="s">
+      <c r="A257" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B257" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C257" s="10">
-        <v>29</v>
-      </c>
-      <c r="D257" s="10">
-        <v>10</v>
-      </c>
-      <c r="E257" s="10" t="s">
-        <v>110</v>
+      <c r="C257" s="9">
+        <v>49</v>
+      </c>
+      <c r="D257" s="9">
+        <v>15</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C258" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D258" s="9">
         <v>2</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -4131,10 +4170,10 @@
         <v>25</v>
       </c>
       <c r="C259" s="9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D259" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E259" s="9" t="s">
         <v>20</v>
@@ -4143,160 +4182,160 @@
     <row r="260" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>144</v>
-      </c>
-      <c r="B262" t="s">
-        <v>19</v>
-      </c>
-      <c r="C262">
-        <v>2</v>
-      </c>
-      <c r="D262">
-        <v>2</v>
-      </c>
-      <c r="E262" t="s">
-        <v>20</v>
+      <c r="A262" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" s="11">
+        <v>32</v>
+      </c>
+      <c r="D262" s="11">
+        <v>27</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B263" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C263" s="10">
-        <v>30</v>
-      </c>
-      <c r="D263" s="10">
+      <c r="A263" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C263" s="9">
+        <v>31</v>
+      </c>
+      <c r="D263" s="9">
         <v>8</v>
       </c>
-      <c r="E263" s="10" t="s">
-        <v>36</v>
+      <c r="E263" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>86</v>
-      </c>
-      <c r="B264" t="s">
+      <c r="A264" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B264" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C264">
-        <v>4</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="C264" s="9">
+        <v>69</v>
+      </c>
+      <c r="D264" s="9">
+        <v>20</v>
+      </c>
+      <c r="E264" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C267" s="12">
+      <c r="A267" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C267" s="8">
         <v>13</v>
       </c>
-      <c r="D267" s="12">
-        <v>24</v>
-      </c>
-      <c r="E267" s="12" t="s">
-        <v>185</v>
+      <c r="D267" s="8">
+        <v>74</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C268" s="8">
-        <v>22</v>
-      </c>
-      <c r="D268" s="8">
-        <v>29</v>
-      </c>
-      <c r="E268" s="8" t="s">
-        <v>204</v>
+      <c r="A268" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" s="11">
+        <v>47</v>
+      </c>
+      <c r="D268" s="11">
+        <v>30</v>
+      </c>
+      <c r="E268" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C269" s="9">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="D269" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C272" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D272" s="9">
         <v>0</v>
       </c>
       <c r="E272" s="9" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C273" s="11">
+      <c r="A273" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" s="8">
         <v>3</v>
       </c>
-      <c r="D273" s="11">
-        <v>36</v>
-      </c>
-      <c r="E273" s="11" t="s">
-        <v>163</v>
+      <c r="D273" s="8">
+        <v>51</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B274" t="s">
         <v>19</v>
@@ -4314,120 +4353,120 @@
     <row r="275" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C277" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D277" s="9">
         <v>8</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B278" s="11" t="s">
+      <c r="A278" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B278" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C278" s="11">
+      <c r="C278" s="8">
         <v>9</v>
       </c>
-      <c r="D278" s="11">
-        <v>127</v>
-      </c>
-      <c r="E278" s="11" t="s">
-        <v>156</v>
+      <c r="D278" s="8">
+        <v>159</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B279" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C279" s="9">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D279" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>105</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="A280" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B280" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C280">
-        <v>2</v>
-      </c>
-      <c r="D280">
-        <v>0</v>
-      </c>
-      <c r="E280" t="s">
+      <c r="C280" s="11">
+        <v>17</v>
+      </c>
+      <c r="D280" s="11">
+        <v>15</v>
+      </c>
+      <c r="E280" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B283" s="10" t="s">
+      <c r="A283" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B283" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C283" s="10">
-        <v>28</v>
-      </c>
-      <c r="D283" s="10">
+      <c r="C283" s="12">
+        <v>29</v>
+      </c>
+      <c r="D283" s="12">
         <v>15</v>
       </c>
-      <c r="E283" s="10" t="s">
+      <c r="E283" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C284" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D284" s="9">
         <v>8</v>
       </c>
       <c r="E284" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B285" t="s">
         <v>19</v>
@@ -4445,12 +4484,12 @@
     <row r="286" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B288" s="10" t="s">
         <v>22</v>
@@ -4462,49 +4501,49 @@
         <v>16</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>224</v>
-      </c>
-      <c r="B289" t="s">
-        <v>39</v>
-      </c>
-      <c r="C289">
-        <v>0</v>
-      </c>
-      <c r="D289">
-        <v>0</v>
-      </c>
-      <c r="E289" t="s">
+      <c r="A289" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C289" s="11">
+        <v>10</v>
+      </c>
+      <c r="D289" s="11">
+        <v>10</v>
+      </c>
+      <c r="E289" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C290" s="12">
-        <v>14</v>
-      </c>
-      <c r="D290" s="12">
-        <v>41</v>
-      </c>
-      <c r="E290" s="12" t="s">
-        <v>168</v>
+      <c r="A290" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C290" s="8">
+        <v>15</v>
+      </c>
+      <c r="D290" s="8">
+        <v>47</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B291" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -4519,120 +4558,120 @@
     <row r="292" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B294" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C294" s="12">
+      <c r="A294" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294" s="8">
         <v>33</v>
       </c>
-      <c r="D294" s="12">
+      <c r="D294" s="8">
         <v>73</v>
       </c>
-      <c r="E294" s="12" t="s">
-        <v>108</v>
+      <c r="E294" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B295" s="11" t="s">
+      <c r="A295" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B295" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C295" s="11">
+      <c r="C295" s="8">
         <v>11</v>
       </c>
-      <c r="D295" s="11">
-        <v>48</v>
-      </c>
-      <c r="E295" s="11" t="s">
-        <v>227</v>
+      <c r="D295" s="8">
+        <v>64</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="11" t="s">
+      <c r="A296" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B296" s="11" t="s">
+      <c r="B296" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C296" s="11">
+      <c r="C296" s="8">
         <v>1</v>
       </c>
-      <c r="D296" s="11">
+      <c r="D296" s="8">
         <v>12</v>
       </c>
-      <c r="E296" s="11" t="s">
+      <c r="E296" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B299" s="10" t="s">
+      <c r="A299" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B299" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C299" s="10">
-        <v>36</v>
-      </c>
-      <c r="D299" s="10">
-        <v>18</v>
-      </c>
-      <c r="E299" s="10" t="s">
-        <v>230</v>
+      <c r="C299" s="9">
+        <v>71</v>
+      </c>
+      <c r="D299" s="9">
+        <v>23</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B300" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C300" s="10">
-        <v>33</v>
-      </c>
-      <c r="D300" s="10">
+      <c r="A300" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" s="9">
+        <v>50</v>
+      </c>
+      <c r="D300" s="9">
         <v>16</v>
       </c>
-      <c r="E300" s="10" t="s">
+      <c r="E300" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B301" s="10" t="s">
+      <c r="A301" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B301" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C301" s="10">
-        <v>28</v>
-      </c>
-      <c r="D301" s="10">
+      <c r="C301" s="9">
+        <v>48</v>
+      </c>
+      <c r="D301" s="9">
         <v>14</v>
       </c>
-      <c r="E301" s="10" t="s">
-        <v>100</v>
+      <c r="E301" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B302" s="10" t="s">
         <v>19</v>
@@ -4649,7 +4688,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B303" s="10" t="s">
         <v>27</v>
@@ -4661,52 +4700,52 @@
         <v>8</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C306" s="8">
+      <c r="A306" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C306" s="11">
         <v>7</v>
       </c>
-      <c r="D306" s="8">
+      <c r="D306" s="11">
         <v>5</v>
       </c>
-      <c r="E306" s="8" t="s">
+      <c r="E306" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B307" s="11" t="s">
+      <c r="A307" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B307" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C307" s="11">
+      <c r="C307" s="8">
         <v>16</v>
       </c>
-      <c r="D307" s="11">
-        <v>84</v>
-      </c>
-      <c r="E307" s="11" t="s">
-        <v>138</v>
+      <c r="D307" s="8">
+        <v>124</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B308" s="10" t="s">
         <v>22</v>
@@ -4718,92 +4757,92 @@
         <v>11</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B311" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C311" s="10">
-        <v>7</v>
-      </c>
-      <c r="D311" s="10">
+      <c r="A311" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C311" s="9">
+        <v>8</v>
+      </c>
+      <c r="D311" s="9">
         <v>2</v>
       </c>
-      <c r="E311" s="10" t="s">
+      <c r="E311" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C312" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D312" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B313" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C313" s="9">
-        <v>8</v>
-      </c>
-      <c r="D313" s="9">
-        <v>2</v>
-      </c>
-      <c r="E313" s="9" t="s">
-        <v>20</v>
+      <c r="A313" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" s="10">
+        <v>34</v>
+      </c>
+      <c r="D313" s="10">
+        <v>17</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B314" s="10" t="s">
+      <c r="A314" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B314" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C314" s="10">
-        <v>34</v>
-      </c>
-      <c r="D314" s="10">
+      <c r="C314" s="9">
+        <v>35</v>
+      </c>
+      <c r="D314" s="9">
         <v>10</v>
       </c>
-      <c r="E314" s="10" t="s">
-        <v>65</v>
+      <c r="E314" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B315" t="s">
         <v>25</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -4815,29 +4854,29 @@
     <row r="316" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B318" s="12" t="s">
+      <c r="A318" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B318" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C318" s="12">
+      <c r="C318" s="8">
         <v>28</v>
       </c>
-      <c r="D318" s="12">
+      <c r="D318" s="8">
         <v>49</v>
       </c>
-      <c r="E318" s="12" t="s">
-        <v>150</v>
+      <c r="E318" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B319" t="s">
         <v>22</v>
@@ -4853,20 +4892,20 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B320" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C320" s="12">
-        <v>1</v>
-      </c>
-      <c r="D320" s="12">
-        <v>4</v>
-      </c>
-      <c r="E320" s="12" t="s">
-        <v>20</v>
+      <c r="A320" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C320" s="8">
+        <v>6</v>
+      </c>
+      <c r="D320" s="8">
+        <v>79</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25"/>
